--- a/my models.xlsx
+++ b/my models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan Kin Yan\Documents\GitHub\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAEFA8F-57B8-4639-A54D-86C0B37E9F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F800F2-AD05-4AFF-927F-856EF767E756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iou, 3, 0.5D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iou, 1, 0.5D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1.2, 6.4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Channels</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,6 +179,36 @@
   </si>
   <si>
     <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 6.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoe_pp_yolo3</t>
+  </si>
+  <si>
+    <t>zoe_pp_yolo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoe_pp_yolo2</t>
+  </si>
+  <si>
+    <t>basix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>training time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.59 mins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainable params</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +233,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -239,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,6 +276,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -563,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3903BAF0-A2DE-4483-90A3-00B242B221E4}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -585,10 +620,11 @@
     <col min="12" max="13" width="17.625" style="2" customWidth="1"/>
     <col min="14" max="14" width="12.125" style="2" customWidth="1"/>
     <col min="15" max="15" width="15.875" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="16" max="16" width="17.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,19 +656,25 @@
         <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -663,11 +705,14 @@
       <c r="L2" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="M2" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -699,13 +744,16 @@
         <v>128</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -722,66 +770,93 @@
         <v>0.16</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="2">
+        <v>128</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="4">
+        <v>9011272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M5" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="3">
         <v>8000</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K15" s="3">
         <v>64</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="L15" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="J5" s="2">
-        <v>8000</v>
-      </c>
-      <c r="K5" s="2">
-        <v>64</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/my models.xlsx
+++ b/my models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan Kin Yan\Documents\GitHub\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F800F2-AD05-4AFF-927F-856EF767E756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B42BFA-B854-4ED4-AD0D-804958AF8680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
   <si>
     <t>h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,26 +189,102 @@
     <t>zoe_pp_yolo3</t>
   </si>
   <si>
+    <t>zoe_pp_yolo2</t>
+  </si>
+  <si>
+    <t>basix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>training time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.59 mins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainable params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upsampling, nofocus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoe_pp_yolo4</t>
+  </si>
+  <si>
+    <t>simplest no focus 3 resblock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">no focus </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-56.32, 25.7)</t>
+  </si>
+  <si>
+    <t>(-46.08, 56.33)</t>
+  </si>
+  <si>
+    <t>(-56.32, 25.8)</t>
+  </si>
+  <si>
+    <t>(-46.08, 56.34)</t>
+  </si>
+  <si>
     <t>zoe_pp_yolo1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zoe_pp_yolo2</t>
-  </si>
-  <si>
-    <t>basix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>training time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30.59 mins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trainable params</t>
+  </si>
+  <si>
+    <t>(-56.32, 25.5)</t>
+  </si>
+  <si>
+    <t>(-46.08, 56.31)</t>
+  </si>
+  <si>
+    <t>(0,6.4)</t>
+  </si>
+  <si>
+    <t>4 anchors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">all </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gg think all are shit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>align iou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoe_pp_yolo5</t>
+  </si>
+  <si>
+    <t>(-56.32, 25.9)</t>
+  </si>
+  <si>
+    <t>(-46.08, 56.35)</t>
+  </si>
+  <si>
+    <t>multi-layers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>need to redo code fkkk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iou, 3, 0.5D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +321,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -268,12 +359,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -281,7 +369,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,269 +695,405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3903BAF0-A2DE-4483-90A3-00B242B221E4}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="17.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="17.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8000</v>
+      </c>
+      <c r="K2" s="1">
+        <v>128</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1">
+        <v>8000</v>
+      </c>
+      <c r="K3" s="1">
+        <v>128</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="3">
+        <v>128</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2">
-        <v>8000</v>
-      </c>
-      <c r="K2" s="2">
-        <v>128</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2">
-        <v>8000</v>
-      </c>
-      <c r="K3" s="2">
-        <v>128</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K4" s="2">
-        <v>128</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="P4" s="4">
         <v>9011272</v>
       </c>
+      <c r="Q4" s="3">
+        <f>14</f>
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M5" s="3"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M5" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>40</v>
+    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="1">
+        <v>8000</v>
+      </c>
+      <c r="K9" s="1">
+        <v>64</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>38</v>
+    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K10" s="1">
+        <v>64</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K11" s="3">
+        <v>128</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>8000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>64</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/my models.xlsx
+++ b/my models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan Kin Yan\Documents\GitHub\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B42BFA-B854-4ED4-AD0D-804958AF8680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5415FDE7-7DDF-41B6-B0C8-43785246ED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
+    <workbookView xWindow="29760" yWindow="960" windowWidth="21600" windowHeight="11235" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t>h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,213 +78,233 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>zoe_pointpillars1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoe_pointpillars2</t>
+  </si>
+  <si>
+    <t>zoe_pointpillars3</t>
+  </si>
+  <si>
+    <t>model 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrong 32 anchors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-50.4,23.52)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-43.68,70.56)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,6.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iou, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max pillars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpp (iou, minpoints, diag )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iou, 1, 0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kmeans 8 anchors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 anchors correct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-56.32, 25.6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-46.08, 56.32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Channels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok/ yaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nono</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 6.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoe_pp_yolo3</t>
+  </si>
+  <si>
+    <t>zoe_pp_yolo2</t>
+  </si>
+  <si>
+    <t>training time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.59 mins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainable params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upsampling, nofocus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoe_pp_yolo4</t>
+  </si>
+  <si>
+    <t>simplest no focus 3 resblock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">no focus </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-56.32, 25.7)</t>
+  </si>
+  <si>
+    <t>(-46.08, 56.33)</t>
+  </si>
+  <si>
+    <t>(-56.32, 25.8)</t>
+  </si>
+  <si>
+    <t>(-46.08, 56.34)</t>
+  </si>
+  <si>
+    <t>zoe_pp_yolo1</t>
+  </si>
+  <si>
+    <t>(-56.32, 25.5)</t>
+  </si>
+  <si>
+    <t>(-46.08, 56.31)</t>
+  </si>
+  <si>
+    <t>(0,6.4)</t>
+  </si>
+  <si>
+    <t>4 anchors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">all </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gg think all are shit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>align iou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoe_pp_yolo5</t>
+  </si>
+  <si>
+    <t>(-56.32, 25.9)</t>
+  </si>
+  <si>
+    <t>(-46.08, 56.35)</t>
+  </si>
+  <si>
+    <t>multi-layers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>need to redo code fkkk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>zoe_pointpillars4</t>
-  </si>
-  <si>
-    <t>zoe_pointpillars1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zoe_pointpillars2</t>
-  </si>
-  <si>
-    <t>zoe_pointpillars3</t>
-  </si>
-  <si>
-    <t>model 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>train4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wrong 32 anchors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>train 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height width ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(-50.4,23.52)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(-43.68,70.56)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0,6.4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iou, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max pillars</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpp (iou, minpoints, diag )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iou, 1, 0.5D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kmeans 8 anchors</t>
-  </si>
-  <si>
-    <t>kmeans 8 anchors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32 anchors correct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-56.32, 25.6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-46.08, 56.32)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Channels</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok/ yaw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nono</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 6.4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zoe_pp_yolo3</t>
-  </si>
-  <si>
-    <t>zoe_pp_yolo2</t>
-  </si>
-  <si>
-    <t>basix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>training time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30.59 mins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trainable params</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>epoch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upsampling, nofocus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zoe_pp_yolo4</t>
-  </si>
-  <si>
-    <t>simplest no focus 3 resblock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">no focus </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-56.32, 25.7)</t>
-  </si>
-  <si>
-    <t>(-46.08, 56.33)</t>
-  </si>
-  <si>
-    <t>(-56.32, 25.8)</t>
-  </si>
-  <si>
-    <t>(-46.08, 56.34)</t>
-  </si>
-  <si>
-    <t>zoe_pp_yolo1</t>
-  </si>
-  <si>
-    <t>(-56.32, 25.5)</t>
-  </si>
-  <si>
-    <t>(-46.08, 56.31)</t>
-  </si>
-  <si>
-    <t>(0,6.4)</t>
-  </si>
-  <si>
-    <t>4 anchors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">all </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gg think all are shit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>align iou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zoe_pp_yolo5</t>
-  </si>
-  <si>
-    <t>(-56.32, 25.9)</t>
-  </si>
-  <si>
-    <t>(-46.08, 56.35)</t>
-  </si>
-  <si>
-    <t>multi-layers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>need to redo code fkkk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iou, 3, 0.5D</t>
+  </si>
+  <si>
+    <t>train5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -337,12 +357,36 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -359,7 +403,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -370,15 +414,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -697,13 +762,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3903BAF0-A2DE-4483-90A3-00B242B221E4}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.625" style="1" bestFit="1" customWidth="1"/>
@@ -722,62 +787,62 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>44</v>
+      <c r="O1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>4</v>
@@ -786,16 +851,16 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="J2" s="1">
         <v>8000</v>
@@ -804,13 +869,13 @@
         <v>128</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="1">
         <v>83</v>
@@ -818,10 +883,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
@@ -830,16 +895,16 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="J3" s="1">
         <v>8000</v>
@@ -848,165 +913,212 @@
         <v>128</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3">
+    <row r="4" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12">
         <v>2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="12">
+        <v>128</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8">
         <v>0.16</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="F5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="8">
         <v>1000</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K5" s="8">
         <v>128</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="4">
+      <c r="L5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="9">
         <v>9011272</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q5" s="8">
         <f>14</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="M5" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="1">
-        <v>8000</v>
-      </c>
-      <c r="K9" s="1">
+    <row r="9" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="11">
         <v>64</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>45</v>
+      <c r="L9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="I10" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J10" s="3">
         <v>1000</v>
@@ -1015,81 +1127,63 @@
         <v>64</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1000</v>
+      </c>
+      <c r="K11" s="6">
+        <v>64</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K11" s="3">
-        <v>128</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="2">
-        <v>8000</v>
-      </c>
-      <c r="K15" s="2">
-        <v>64</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/my models.xlsx
+++ b/my models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan Kin Yan\Documents\GitHub\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5415FDE7-7DDF-41B6-B0C8-43785246ED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E608F5FD-3B81-4516-8CE1-B402B8D4FC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="21600" windowHeight="11235" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
+    <workbookView xWindow="948" yWindow="1104" windowWidth="21600" windowHeight="11232" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,6 +305,25 @@
   </si>
   <si>
     <t>model11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoe_pointpillars5</t>
+  </si>
+  <si>
+    <t>train5</t>
+  </si>
+  <si>
+    <t>model 9</t>
+  </si>
+  <si>
+    <t>(0, 6.5)</t>
+  </si>
+  <si>
+    <t>iou, 1, 0.6D</t>
+  </si>
+  <si>
+    <t>kmeans 12 anchors</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -444,6 +463,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -760,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3903BAF0-A2DE-4483-90A3-00B242B221E4}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1014,47 +1039,77 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>55</v>
-      </c>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="8">
+        <v>128</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>20</v>
@@ -1063,127 +1118,156 @@
         <v>56</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+    <row r="10" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J10" s="11">
         <v>1000</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K10" s="11">
         <v>64</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M10" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J11" s="3">
         <v>1000</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K11" s="1">
         <v>64</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J12" s="6">
         <v>1000</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K12" s="6">
         <v>64</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N12" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/my models.xlsx
+++ b/my models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan Kin Yan\Documents\GitHub\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E608F5FD-3B81-4516-8CE1-B402B8D4FC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF737BA6-F9AC-47E2-A07F-5DA32E8B844E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="948" yWindow="1104" windowWidth="21600" windowHeight="11232" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
   <si>
     <t>h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +324,10 @@
   </si>
   <si>
     <t>kmeans 12 anchors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.08 mins</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -463,12 +467,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -787,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3903BAF0-A2DE-4483-90A3-00B242B221E4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1035,8 +1033,7 @@
         <v>9011272</v>
       </c>
       <c r="Q5" s="8">
-        <f>14</f>
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1082,21 +1079,30 @@
       <c r="N6" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="O6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="9">
+        <v>9011272</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="N7" s="14"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">

--- a/my models.xlsx
+++ b/my models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan Kin Yan\Documents\GitHub\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF737BA6-F9AC-47E2-A07F-5DA32E8B844E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9305385D-E8A1-491B-99F3-FA188681DA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -786,7 +786,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1086,7 +1086,7 @@
         <v>9011272</v>
       </c>
       <c r="Q6" s="1">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">

--- a/my models.xlsx
+++ b/my models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan Kin Yan\Documents\GitHub\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9305385D-E8A1-491B-99F3-FA188681DA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF68090-1EA9-4754-B41A-4591C727DEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,10 +203,6 @@
   </si>
   <si>
     <t>zoe_pp_yolo4</t>
-  </si>
-  <si>
-    <t>simplest no focus 3 resblock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">no focus </t>
@@ -785,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3903BAF0-A2DE-4483-90A3-00B242B221E4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -895,7 +891,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>31</v>
@@ -939,7 +935,7 @@
         <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>30</v>
@@ -950,7 +946,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>16</v>
@@ -962,13 +958,13 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>66</v>
-      </c>
       <c r="H4" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>24</v>
@@ -985,7 +981,7 @@
     </row>
     <row r="5" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -1021,7 +1017,7 @@
         <v>25</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>32</v>
@@ -1038,13 +1034,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
@@ -1053,16 +1049,16 @@
         <v>0.16</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="H6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="J6" s="8">
         <v>1000</v>
@@ -1071,16 +1067,16 @@
         <v>128</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>32</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P6" s="9">
         <v>9011272</v>
@@ -1106,31 +1102,31 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1138,7 +1134,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>27</v>
@@ -1150,30 +1146,24 @@
         <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="F10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>34</v>
@@ -1189,23 +1179,26 @@
       </c>
       <c r="L10" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="B11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="F11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>24</v>
@@ -1217,30 +1210,37 @@
         <v>64</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>43</v>
+        <v>76</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>39+16</f>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="H12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>24</v>
@@ -1252,13 +1252,13 @@
         <v>64</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">

--- a/my models.xlsx
+++ b/my models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan Kin Yan\Documents\GitHub\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF68090-1EA9-4754-B41A-4591C727DEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64653F7-F2B3-450E-951A-F13962EC5DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3903BAF0-A2DE-4483-90A3-00B242B221E4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1261,6 +1261,14 @@
         <v>60</v>
       </c>
     </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O13" s="1">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>42</v>
+      </c>
+    </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>

--- a/my models.xlsx
+++ b/my models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan Kin Yan\Documents\GitHub\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64653F7-F2B3-450E-951A-F13962EC5DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A5BA19-7F3E-4356-AC05-B1740B89B15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
   </bookViews>
@@ -422,7 +422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -463,6 +463,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -782,7 +785,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1265,6 +1268,9 @@
       <c r="O13" s="1">
         <v>29</v>
       </c>
+      <c r="P13" s="14">
+        <v>7803606</v>
+      </c>
       <c r="Q13" s="1">
         <v>42</v>
       </c>

--- a/my models.xlsx
+++ b/my models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan Kin Yan\Documents\GitHub\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A5BA19-7F3E-4356-AC05-B1740B89B15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B101E64-1A39-4ABD-BC70-389730F8D84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
   <si>
     <t>h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,6 +325,39 @@
   <si>
     <t>32.08 mins</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoe_pp_yolo6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4feature downscale 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-56.32, 25.10)</t>
+  </si>
+  <si>
+    <t>(-46.08, 56.36)</t>
+  </si>
+  <si>
+    <t>(0,6.5)</t>
+  </si>
+  <si>
+    <t>(-56.32, 25.11)</t>
+  </si>
+  <si>
+    <t>(-46.08, 56.37)</t>
+  </si>
+  <si>
+    <t>(0,6.6)</t>
+  </si>
+  <si>
+    <t>iou, 1, 0.7D</t>
   </si>
 </sst>
 </file>
@@ -784,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3903BAF0-A2DE-4483-90A3-00B242B221E4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1189,7 +1222,7 @@
         <v>42</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>69</v>
@@ -1233,9 +1266,6 @@
       <c r="B12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="F12" s="6" t="s">
         <v>57</v>
       </c>
@@ -1265,6 +1295,24 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1000</v>
+      </c>
+      <c r="K13" s="6">
+        <v>64</v>
+      </c>
       <c r="O13" s="1">
         <v>29</v>
       </c>
@@ -1273,6 +1321,38 @@
       </c>
       <c r="Q13" s="1">
         <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="6">
+        <v>64</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">

--- a/my models.xlsx
+++ b/my models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan Kin Yan\Documents\GitHub\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B101E64-1A39-4ABD-BC70-389730F8D84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7A4DB3-10C5-4E78-B427-2D11C0E81FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
+    <workbookView xWindow="3144" yWindow="2292" windowWidth="17280" windowHeight="8880" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
   <si>
     <t>h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,10 +331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4feature downscale 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>train7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,6 +354,14 @@
   </si>
   <si>
     <t>iou, 1, 0.7D</t>
+  </si>
+  <si>
+    <t>3feature downscale 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.31mins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -817,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3903BAF0-A2DE-4483-90A3-00B242B221E4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1296,13 +1300,13 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>75</v>
@@ -1328,22 +1332,22 @@
         <v>78</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="J14" s="6">
         <v>1000</v>
@@ -1351,8 +1355,17 @@
       <c r="K14" s="6">
         <v>64</v>
       </c>
+      <c r="L14" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="M14" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">

--- a/my models.xlsx
+++ b/my models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan Kin Yan\Documents\GitHub\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7A4DB3-10C5-4E78-B427-2D11C0E81FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F324DC-302B-44A4-8923-6849E3207055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3144" yWindow="2292" windowWidth="17280" windowHeight="8880" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
   <si>
     <t>h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,10 +357,6 @@
   </si>
   <si>
     <t>3feature downscale 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30.31mins</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -822,7 +818,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1361,9 +1357,6 @@
       <c r="M14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="Q14" s="1">
         <v>42</v>
       </c>

--- a/my models.xlsx
+++ b/my models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan Kin Yan\Documents\GitHub\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F324DC-302B-44A4-8923-6849E3207055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B32545-D103-4A9C-9EAF-6389F8C07112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3903BAF0-A2DE-4483-90A3-00B242B221E4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1357,6 +1357,9 @@
       <c r="M14" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="P14" s="14">
+        <v>125684128</v>
+      </c>
       <c r="Q14" s="1">
         <v>42</v>
       </c>

--- a/my models.xlsx
+++ b/my models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan Kin Yan\Documents\GitHub\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B32545-D103-4A9C-9EAF-6389F8C07112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5484ADF-6D49-496E-8C09-728CCA64612A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{25F5D22B-B428-4E40-8DA6-9C426A79E496}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,24 +212,15 @@
     <t>(-56.32, 25.7)</t>
   </si>
   <si>
-    <t>(-46.08, 56.33)</t>
-  </si>
-  <si>
     <t>(-56.32, 25.8)</t>
   </si>
   <si>
-    <t>(-46.08, 56.34)</t>
-  </si>
-  <si>
     <t>zoe_pp_yolo1</t>
   </si>
   <si>
     <t>(-56.32, 25.5)</t>
   </si>
   <si>
-    <t>(-46.08, 56.31)</t>
-  </si>
-  <si>
     <t>(0,6.4)</t>
   </si>
   <si>
@@ -255,9 +246,6 @@
     <t>(-56.32, 25.9)</t>
   </si>
   <si>
-    <t>(-46.08, 56.35)</t>
-  </si>
-  <si>
     <t>multi-layers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,9 +301,6 @@
     <t>model 9</t>
   </si>
   <si>
-    <t>(0, 6.5)</t>
-  </si>
-  <si>
     <t>iou, 1, 0.6D</t>
   </si>
   <si>
@@ -335,28 +320,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(-56.32, 25.10)</t>
-  </si>
-  <si>
-    <t>(-46.08, 56.36)</t>
-  </si>
-  <si>
     <t>(0,6.5)</t>
   </si>
   <si>
     <t>(-56.32, 25.11)</t>
   </si>
   <si>
-    <t>(-46.08, 56.37)</t>
-  </si>
-  <si>
-    <t>(0,6.6)</t>
-  </si>
-  <si>
     <t>iou, 1, 0.7D</t>
   </si>
   <si>
     <t>3feature downscale 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoe_pointpillars6</t>
+  </si>
+  <si>
+    <t>72mins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32anchors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoe_pp_yolo10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-56.32, 25.12)</t>
+  </si>
+  <si>
+    <t>(-46.08, 56.32)</t>
+  </si>
+  <si>
+    <t>iou, 1, 0.5D</t>
+  </si>
+  <si>
+    <t>3feature_knn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoe_pp_yolo11</t>
+  </si>
+  <si>
+    <t>knn 6anchor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4features downscale 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoe_pp_yolo12</t>
+  </si>
+  <si>
+    <t>map 6anchor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,36 +428,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -455,50 +450,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -815,568 +789,667 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3903BAF0-A2DE-4483-90A3-00B242B221E4}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="20.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="15.875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>4</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>8000</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="3">
         <v>128</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K3" s="3">
+        <v>128</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="4">
+        <v>128</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="4">
+        <v>128</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="5">
+        <v>9011272</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="4">
+        <v>128</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="5">
+        <v>9011272</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="4">
+        <v>128</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="F10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1">
-        <v>8000</v>
-      </c>
-      <c r="K3" s="1">
-        <v>128</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="12">
-        <v>2</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="12">
-        <v>1000</v>
-      </c>
-      <c r="K4" s="12">
-        <v>128</v>
-      </c>
-      <c r="L4" s="12" t="s">
+      <c r="I10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="M10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="8">
-        <v>1000</v>
-      </c>
-      <c r="K5" s="8">
-        <v>128</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="9">
-        <v>9011272</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="8">
-        <v>2</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="8">
-        <v>1000</v>
-      </c>
-      <c r="K6" s="8">
-        <v>128</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" s="9">
-        <v>9011272</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="11">
-        <v>1000</v>
-      </c>
-      <c r="K10" s="11">
-        <v>64</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J11" s="3">
         <v>1000</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="3">
         <v>64</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M11" s="10" t="s">
+      <c r="L11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="3">
+        <v>64</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O12" s="4">
         <v>16</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q12" s="4">
         <f>39+16</f>
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="4">
+        <v>64</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" s="3">
+        <v>30</v>
+      </c>
+      <c r="P14" s="6">
+        <v>125684128</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K15" s="4">
+        <v>64</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O15" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K16" s="4">
+        <v>64</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="4">
+        <v>64</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K18" s="4">
+        <v>64</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K12" s="6">
-        <v>64</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K13" s="6">
-        <v>64</v>
-      </c>
-      <c r="O13" s="1">
-        <v>29</v>
-      </c>
-      <c r="P13" s="14">
-        <v>7803606</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K14" s="6">
-        <v>64</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P14" s="14">
-        <v>125684128</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
